--- a/data/trans_dic/IP1020-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP1020-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,22 +864,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,42</t>
+          <t>0,0; 5,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,47; 11,97</t>
+          <t>2,46; 11,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,71</t>
+          <t>0,0; 6,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,6; 14,35</t>
+          <t>1,61; 13,54</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,7 +889,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 7,19</t>
+          <t>0,75; 7,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,27 +899,27 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,37; 11,42</t>
+          <t>1,0; 11,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,94</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,31</t>
+          <t>2,33; 7,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,81</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,34; 10,35</t>
+          <t>2,58; 10,35</t>
         </is>
       </c>
     </row>
@@ -1004,42 +1004,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,4; 1,82</t>
+          <t>0,38; 1,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 1,67</t>
+          <t>0,3; 1,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 2,33</t>
+          <t>0,55; 2,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,77</t>
+          <t>1,95; 4,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,01</t>
+          <t>0,35; 2,07</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 3,77</t>
+          <t>1,32; 3,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 2,86</t>
+          <t>0,9; 2,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,91</t>
+          <t>2,0; 4,89</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,34</t>
+          <t>1,02; 2,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,17</t>
+          <t>0,96; 2,17</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,38</t>
+          <t>2,35; 4,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,65</t>
+          <t>0,0; 2,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 5,76</t>
+          <t>1,12; 5,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,79</t>
+          <t>1,06; 5,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,54</t>
+          <t>0,0; 2,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,32; 6,64</t>
+          <t>1,27; 6,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,65</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 7,25</t>
+          <t>1,9; 8,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,69</t>
+          <t>0,18; 1,51</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,98; 3,53</t>
+          <t>0,93; 3,44</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,85; 3,26</t>
+          <t>0,77; 3,5</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,45</t>
+          <t>1,9; 5,37</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,58</t>
+          <t>0,46; 1,56</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,83; 2,27</t>
+          <t>0,85; 2,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,01; 2,56</t>
+          <t>1,04; 2,52</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,25; 4,68</t>
+          <t>2,33; 4,62</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,51</t>
+          <t>0,37; 1,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,71; 3,78</t>
+          <t>1,82; 3,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 2,11</t>
+          <t>0,76; 2,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,38; 4,91</t>
+          <t>2,38; 4,9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,36</t>
+          <t>0,5; 1,29</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,44; 2,64</t>
+          <t>1,45; 2,67</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,06; 2,04</t>
+          <t>1,06; 2,08</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,56; 4,26</t>
+          <t>2,59; 4,34</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP1020-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP1020-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -661,57 +661,57 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>2,89%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,91%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,05%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0; 1,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,74; 6,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0; 2,13</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 9,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 5,04</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,88; 12,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 6,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>1,55; 14,61</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>0,0; 2,55</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,23; 7,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>2,2; 10,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,56%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>2,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>3,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>3,11%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,46</t>
+          <t>0,33; 2,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 11,77</t>
+          <t>1,33; 3,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,15</t>
+          <t>0,98; 3,01</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 13,54</t>
+          <t>1,78; 4,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,4</t>
+          <t>0,38; 1,93</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,75; 7,55</t>
+          <t>0,31; 1,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>0,68; 2,34</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 11,41</t>
+          <t>1,98; 4,67</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,94</t>
+          <t>0,52; 1,57</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,33</t>
+          <t>0,94; 2,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,93; 2,14</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 10,35</t>
+          <t>2,19; 4,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,19%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>1,47%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,26%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,89</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,83</t>
+          <t>1,35; 6,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 2,22</t>
+          <t>0,0; 2,51</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,95; 4,68</t>
+          <t>1,93; 7,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,07</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,32; 3,56</t>
+          <t>0,0; 2,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,81</t>
+          <t>1,15; 5,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,89</t>
+          <t>1,01; 5,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 1,68</t>
+          <t>0,18; 1,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,33</t>
+          <t>0,9; 3,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,17</t>
+          <t>0,86; 3,28</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,26</t>
+          <t>1,88; 5,41</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,3%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,31; 1,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>1,72; 3,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,74</t>
+          <t>0,75; 2,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 5,67</t>
+          <t>2,29; 4,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,53</t>
+          <t>0,43; 1,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,27</t>
+          <t>0,79; 2,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,51</t>
+          <t>1,03; 2,79</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 8,11</t>
+          <t>2,24; 4,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,18; 1,51</t>
+          <t>0,52; 1,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,44</t>
+          <t>1,44; 2,61</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,77; 3,5</t>
+          <t>1,09; 2,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,9; 5,37</t>
+          <t>2,58; 4,23</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,89%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,4%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,3%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>2,59%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>1,32%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,84%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>1,98%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>1,52%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>3,39%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>0,46; 1,56</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>0,85; 2,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,04; 2,52</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>2,33; 4,62</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>0,37; 1,46</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 3,86</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>0,76; 2,12</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 4,9</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 1,29</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>1,45; 2,67</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>1,06; 2,08</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>2,59; 4,34</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
